--- a/MAC PDU子头.xlsx
+++ b/MAC PDU子头.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10080" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10080" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="MAC PDU子头及净荷类型" sheetId="1" r:id="rId1"/>
-    <sheet name="MAC PDU可能结构图示" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="文档目录" sheetId="4" r:id="rId1"/>
+    <sheet name="1.MAC PDU子头及净荷类型" sheetId="1" r:id="rId2"/>
+    <sheet name="2.MAC PDU可能结构图示" sheetId="2" r:id="rId3"/>
+    <sheet name="3.MAC SDU子头格式" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,6 +198,125 @@
   </si>
   <si>
     <t>MAC PDU可能结构图示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序 号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内 容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MAC PDU子头及净荷类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC PDU子头及净荷类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.MAC PDU可能结构图示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.MAC SDU子头格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子头类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC SDU子头格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUM_PADDING_HEADER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMAC_DLCCCH_CTRL_SUBHEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUM_PADDING_SUBHEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLCCCH_SDU_LAST_SUBHEAD_LEN</t>
+  </si>
+  <si>
+    <t>DMAC_DLCCCH_LAST_SUBHEAD</t>
+  </si>
+  <si>
+    <t>DLCCCH_SDU_SHORT_SUBHEAD_LEN</t>
+  </si>
+  <si>
+    <t>DMAC_DLCCCH_SDU_SUBHEAD_1</t>
+  </si>
+  <si>
+    <t>DMAC_DLCCCH_SDU_SUBHEAD_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMAC_DLCCCH_SDU_SUBHEAD_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLCCCH_SDU_LONG_SUBHEAD_LEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PADDING_HEADER</t>
+  </si>
+  <si>
+    <t>PADDING_SUBHEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1F 0001 1111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3F 0011 1111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3C 0011 1100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00 0000 0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20 0010 0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80 0000 1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +389,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -763,12 +931,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +998,63 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -916,86 +1145,29 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1033,9 +1205,55 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,590 +1545,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L32"/>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="88" customWidth="1"/>
+    <col min="2" max="2" width="38.875" style="92" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="89">
+        <v>1</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="89">
+        <v>2</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="89">
+        <v>3</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="89">
+        <v>4</v>
+      </c>
+      <c r="B6" s="91"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="89">
+        <v>5</v>
+      </c>
+      <c r="B7" s="91"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="89">
+        <v>6</v>
+      </c>
+      <c r="B8" s="91"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="89">
+        <v>7</v>
+      </c>
+      <c r="B9" s="91"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="89">
+        <v>8</v>
+      </c>
+      <c r="B10" s="91"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="89">
+        <v>9</v>
+      </c>
+      <c r="B11" s="91"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="89">
+        <v>10</v>
+      </c>
+      <c r="B12" s="91"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="89">
+        <v>11</v>
+      </c>
+      <c r="B13" s="91"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="89">
+        <v>12</v>
+      </c>
+      <c r="B14" s="91"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="89">
+        <v>13</v>
+      </c>
+      <c r="B15" s="91"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="89">
+        <v>14</v>
+      </c>
+      <c r="B16" s="91"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="89">
+        <v>15</v>
+      </c>
+      <c r="B17" s="91"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="89">
+        <v>16</v>
+      </c>
+      <c r="B18" s="91"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="89">
+        <v>17</v>
+      </c>
+      <c r="B19" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="'1.MAC PDU子头及净荷类型'!A1" display="'1.MAC PDU子头及净荷类型'!A1"/>
+    <hyperlink ref="B4" location="'2.MAC PDU可能结构图示'!A1" display="'2.MAC PDU可能结构图示'!A1"/>
+    <hyperlink ref="B5" location="'3.MAC SDU子头格式'!A1" display="'3.MAC SDU子头格式'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="5" customWidth="1"/>
     <col min="3" max="10" width="3.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="5" customWidth="1"/>
     <col min="12" max="256" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16">
+    <row r="1" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E3" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F3" s="16">
         <v>4</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G3" s="16">
         <v>5</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H3" s="16">
         <v>6</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I3" s="16">
         <v>7</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J3" s="16">
         <v>8</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="32" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B4" s="20"/>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B5" s="39"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B5" s="20"/>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B6" s="39"/>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B7" s="39"/>
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F7" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="2" t="s">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B8" s="39"/>
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D8" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B8" s="20"/>
-      <c r="C8" s="55" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B9" s="39"/>
+      <c r="C9" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="35" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="13" t="s">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B11" s="40"/>
+      <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B11" s="27" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C12" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="32" t="s">
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="49" t="s">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B13" s="47"/>
+      <c r="C13" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B13" s="28"/>
-      <c r="C13" s="49" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="52"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B14" s="47"/>
+      <c r="C14" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49" t="s">
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B15" s="28"/>
-      <c r="C15" s="50" t="s">
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="37" t="s">
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B16" s="28"/>
-      <c r="C16" s="50" t="s">
+    <row r="17" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B17" s="47"/>
+      <c r="C17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B17" s="28"/>
-      <c r="C17" s="48" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B18" s="47"/>
+      <c r="C18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="39" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B18" s="28"/>
-      <c r="C18" s="48" t="s">
+    <row r="19" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B19" s="47"/>
+      <c r="C19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B19" s="28"/>
-      <c r="C19" s="48" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B20" s="47"/>
+      <c r="C20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B20" s="28"/>
-      <c r="C20" s="48" t="s">
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B21" s="47"/>
+      <c r="C21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B21" s="28"/>
-      <c r="C21" s="48" t="s">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="59"/>
+    </row>
+    <row r="22" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B22" s="47"/>
+      <c r="C22" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="48" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="59"/>
+    </row>
+    <row r="23" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B23" s="47"/>
+      <c r="C23" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="2:11" ht="23.25" customHeight="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="60"/>
+    </row>
+    <row r="24" spans="2:11" ht="23.25" customHeight="1">
+      <c r="B24" s="47"/>
+      <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E24" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="10" t="s">
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="23.25" customHeight="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="7" t="s">
+    <row r="25" spans="2:11" ht="23.25" customHeight="1">
+      <c r="B25" s="47"/>
+      <c r="C25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="18" t="s">
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B25" s="29"/>
-      <c r="C25" s="25" t="s">
+    <row r="26" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B26" s="48"/>
+      <c r="C26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="2:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B26" s="8" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="2:11" ht="23.25" customHeight="1" thickBot="1">
+      <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C27" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="9" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B27" s="22" t="s">
+    <row r="28" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B28" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D28" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="42" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30" t="s">
+    <row r="29" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B29" s="42"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B29" s="23"/>
-      <c r="C29" s="30" t="s">
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B30" s="42"/>
+      <c r="C30" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="40"/>
-    </row>
-    <row r="30" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B30" s="23"/>
-      <c r="C30" s="30" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B31" s="42"/>
+      <c r="C31" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="40"/>
-    </row>
-    <row r="31" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B31" s="23"/>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B32" s="42"/>
+      <c r="C32" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="40"/>
-    </row>
-    <row r="32" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="31" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="59"/>
+    </row>
+    <row r="33" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B33" s="43"/>
+      <c r="C33" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="43"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C9:J9"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C22:J22"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="B11:B25"/>
-    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="B12:B26"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="C32:J32"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="K27:K32"/>
-    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K4:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K23"/>
+    <mergeCell ref="K28:K33"/>
     <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,12 +2292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1936,7 +2310,7 @@
     <col min="13" max="20" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75">
+    <row r="1" spans="1:20" ht="24" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
@@ -1964,853 +2338,853 @@
       <c r="A2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="76"/>
       <c r="B3" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="76"/>
       <c r="L3" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="76"/>
       <c r="B4" s="80"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="76"/>
       <c r="L4" s="80"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="76"/>
       <c r="B5" s="80"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="76"/>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="76"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="76"/>
       <c r="L6" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="76"/>
       <c r="B7" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="76"/>
       <c r="L7" s="86"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="76"/>
       <c r="B8" s="86"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="76"/>
       <c r="L8" s="86"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="76"/>
       <c r="B9" s="86"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="76"/>
       <c r="L9" s="86"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="76"/>
       <c r="B10" s="86"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="76"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="76"/>
       <c r="B11" s="86"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="76"/>
       <c r="L11" s="87"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="76"/>
       <c r="B12" s="87"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="76"/>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="76"/>
       <c r="B13" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="76"/>
-      <c r="L13" s="62" t="s">
+      <c r="L13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="76"/>
       <c r="B14" s="78"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="76"/>
       <c r="B15" s="79"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="76"/>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="76"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="76"/>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="82"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="82"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="76"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="82"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="76"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="82"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="76"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="82"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="76"/>
-      <c r="L22" s="63" t="s">
+      <c r="L22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="82"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="76"/>
-      <c r="L23" s="64" t="s">
+      <c r="L23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="82"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="70"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="82"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="72"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="83"/>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="72"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="34"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="72"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="34"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="76"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="72"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="34"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="76"/>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="72"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="34"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="76"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="72"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="34"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="76"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="72"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="34"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="76"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="72"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="76"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="72"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="34"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="76"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="72"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="34"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="76"/>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="72"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="34"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="76"/>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="75"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2831,17 +3205,183 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="88" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="92" customWidth="1"/>
+    <col min="4" max="5" width="17" style="92" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A1" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A2" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="89">
+        <v>1</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="89">
+        <v>2</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="91"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="89">
+        <v>3</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="91"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A6" s="89">
+        <v>4</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="91"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="89">
+        <v>5</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="91"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="89">
+        <v>6</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="91"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A9" s="89">
+        <v>7</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="91"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A10" s="89">
+        <v>7</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A11" s="89">
+        <v>8</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MAC PDU子头.xlsx
+++ b/MAC PDU子头.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10080" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="文档目录" sheetId="4" r:id="rId1"/>
     <sheet name="1.MAC PDU子头及净荷类型" sheetId="1" r:id="rId2"/>
     <sheet name="2.MAC PDU可能结构图示" sheetId="2" r:id="rId3"/>
     <sheet name="3.MAC SDU子头格式" sheetId="3" r:id="rId4"/>
+    <sheet name="4.MAC PDU Padding计算DTCH&amp;DCCH" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,10 +198,6 @@
     <t>长SDU结构三</t>
   </si>
   <si>
-    <t>MAC PDU可能结构图示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,6 +314,426 @@
   </si>
   <si>
     <t>0x80 0000 1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC PDU可能结构图示CCCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_SUBHEAD_DRX_COMMAND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_SUBHEAD_CA_CE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X1B 0001 1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X1D 0001 1101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X1E 0001 1110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRX_COMMAND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_SUBHEAD_TIMING_ADVANCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMING_ADVANCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_CE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制子头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.MAC PDU Padding计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wRemainTbSize &gt; 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wRemainTbSize = 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wRemainTbSize = 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC PDU Padding计算DTCH&amp;DCCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRUE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bIsDataFlag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    TRUE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bCalcLastHeadFlag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRUE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bIsDataFlag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                 FALSE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bCalcLastHeadFlag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRUE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bIsCrtlElemFlag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                TRUE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bCalcLastHeadFlag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FALSE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bIsDataFlag   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">               FALSE == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bIsCrtlElemFlag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ucLastHeadLen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMAC_SUB_HEADER_LEN_S/ DMAC_SUB_HEADER_LEN_L    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      ucPadSubHeadNum = 1;              wPaddingNum     = wRemainTbSize - 1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ucLastHeadLen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMAC_SUB_HEADER_LEN_S/ DMAC_SUB_HEADER_LEN_L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         ucPadSubHeadNum = 1;              wPaddingNum     = 1             ucLastHeadLen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMAC_SUB_HEADER_LEN_E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     ucDumPadSubHeadNum = 2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ucLastHeadLen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMAC_SUB_HEADER_LEN_S/ DMAC_SUB_HEADER_LEN_L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         ucPadSubHeadNum = 1;                         ucLastHeadLen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMAC_SUB_HEADER_LEN_E  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    ucDumPadSubHeadNum = 1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ucPadSubHeadNum = 1;          wPaddingNum     = wRemainTbSize - 1;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ucLastHeadLen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMAC_SUB_HEADER_LEN_S/ DMAC_SUB_HEADER_LEN_L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         ucPadSubHeadNum = 1;              wPaddingNum     = wRemainTbSize - 1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ucLastHeadLen = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMAC_SUB_HEADER_LEN_S/ DMAC_SUB_HEADER_LEN_L  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        ucPadSubHeadNum = 1;                              wPaddingNum     = wRemainTbSize - 1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ucPadSubHeadNum = 1             wPaddingNum     = wRemainTbSize - 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +843,41 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -940,7 +1392,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,6 +1507,81 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1088,9 +1615,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,42 +1660,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,9 +1688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,62 +1699,23 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,136 +2015,138 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="88" customWidth="1"/>
-    <col min="2" max="2" width="38.875" style="92" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="38" customWidth="1"/>
+    <col min="2" max="2" width="38.875" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="51"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="95"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="96" t="s">
+      <c r="B2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="97" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="89">
-        <v>1</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="89">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="39">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="89">
-        <v>3</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="89">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="40" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="89">
+      <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="89">
+      <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="89">
+      <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="89">
+      <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="89">
+      <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="89">
+      <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="41"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="89">
+      <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="89">
+      <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="41"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="89">
+      <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="89">
+      <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="89">
+      <c r="A17" s="39">
         <v>15</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="41"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="89">
+      <c r="A18" s="39">
         <v>16</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="89">
+      <c r="A19" s="39">
         <v>17</v>
       </c>
-      <c r="B19" s="91"/>
+      <c r="B19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1688,6 +2157,7 @@
     <hyperlink ref="B3" location="'1.MAC PDU子头及净荷类型'!A1" display="'1.MAC PDU子头及净荷类型'!A1"/>
     <hyperlink ref="B4" location="'2.MAC PDU可能结构图示'!A1" display="'2.MAC PDU可能结构图示'!A1"/>
     <hyperlink ref="B5" location="'3.MAC SDU子头格式'!A1" display="'3.MAC SDU子头格式'!A1"/>
+    <hyperlink ref="B6" location="'4.MAC PDU Padding计算'!A1" display="'4.MAC PDU Padding计算'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1697,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -1711,8 +2181,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A1" s="94" t="s">
-        <v>53</v>
+      <c r="A1" s="44" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" thickBot="1"/>
@@ -1746,7 +2216,7 @@
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1758,19 +2228,19 @@
       <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="51" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="75" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B5" s="39"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1780,33 +2250,33 @@
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B6" s="39"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B7" s="39"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1816,67 +2286,67 @@
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B8" s="39"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B10" s="39"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="54" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B11" s="40"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
@@ -1889,386 +2359,358 @@
       <c r="F11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="51" t="s">
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="75" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B13" s="47"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="52"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="52"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="52"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="56" t="s">
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="80" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="57"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B18" s="47"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="58" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="82" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B19" s="47"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="59"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B20" s="47"/>
-      <c r="C20" s="67" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="59"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="83"/>
     </row>
     <row r="21" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B21" s="47"/>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="59"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B22" s="47"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="59"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="83"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B23" s="47"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="60"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="84"/>
     </row>
     <row r="24" spans="2:11" ht="23.25" customHeight="1">
-      <c r="B24" s="47"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
       <c r="K24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="23.25" customHeight="1">
-      <c r="B25" s="47"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
       <c r="K25" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B26" s="48"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="73"/>
+      <c r="C26" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="2:11" ht="23.25" customHeight="1" thickBot="1">
       <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
       <c r="K27" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="66" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="61" t="s">
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="85" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B29" s="42"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="59"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="83"/>
     </row>
     <row r="30" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B30" s="42"/>
-      <c r="C30" s="49" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="59"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="83"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B31" s="42"/>
-      <c r="C31" s="49" t="s">
+      <c r="B31" s="67"/>
+      <c r="C31" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="59"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B32" s="42"/>
-      <c r="C32" s="49" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="59"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="83"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B33" s="43"/>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="68"/>
+      <c r="C33" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="62"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="C26:K26"/>
@@ -2285,6 +2727,34 @@
     <mergeCell ref="K28:K33"/>
     <mergeCell ref="E24:J24"/>
     <mergeCell ref="E25:J25"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,7 +2767,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2311,31 +2781,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
+      <c r="A1" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="90" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -2349,7 +2819,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="90" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="23" t="s">
@@ -2365,8 +2835,8 @@
       <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="76"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="20"/>
@@ -2377,8 +2847,8 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="80" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="91" t="s">
         <v>37</v>
       </c>
       <c r="M3" s="20"/>
@@ -2391,8 +2861,8 @@
       <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="76"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -2401,8 +2871,8 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="80"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -2413,8 +2883,8 @@
       <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="76"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2423,7 +2893,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="90"/>
       <c r="L5" s="24" t="s">
         <v>38</v>
       </c>
@@ -2437,7 +2907,7 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="76"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="24" t="s">
         <v>38</v>
       </c>
@@ -2449,8 +2919,8 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="85" t="s">
+      <c r="K6" s="90"/>
+      <c r="L6" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="19"/>
@@ -2463,8 +2933,8 @@
       <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="76"/>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="92" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="19"/>
@@ -2475,8 +2945,8 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="86"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -2487,8 +2957,8 @@
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="76"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -2497,8 +2967,8 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="86"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
@@ -2509,8 +2979,8 @@
       <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="76"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -2519,8 +2989,8 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="86"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
@@ -2531,8 +3001,8 @@
       <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="76"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -2541,8 +3011,8 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="86"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
@@ -2553,8 +3023,8 @@
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="76"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -2563,8 +3033,8 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="87"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="94"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
@@ -2575,8 +3045,8 @@
       <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="76"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -2585,7 +3055,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="25" t="s">
         <v>40</v>
       </c>
@@ -2601,8 +3071,8 @@
       <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77" t="s">
+      <c r="A13" s="90"/>
+      <c r="B13" s="96" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="20"/>
@@ -2613,7 +3083,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="24" t="s">
         <v>42</v>
       </c>
@@ -2629,8 +3099,8 @@
       <c r="T13" s="21"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="76"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="20" t="s">
         <v>41</v>
       </c>
@@ -2641,7 +3111,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="L14" s="23" t="s">
@@ -2657,8 +3127,8 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="76"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -2667,7 +3137,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="90"/>
       <c r="L15" s="28" t="s">
         <v>44</v>
       </c>
@@ -2681,7 +3151,7 @@
       <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="76"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="24" t="s">
         <v>42</v>
       </c>
@@ -2695,8 +3165,8 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="75" t="s">
+      <c r="K16" s="90"/>
+      <c r="L16" s="95" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="19"/>
@@ -2709,7 +3179,7 @@
       <c r="T16" s="19"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="99" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2723,8 +3193,8 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="75"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -2735,7 +3205,7 @@
       <c r="T17" s="19"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="82"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="25" t="s">
         <v>37</v>
       </c>
@@ -2747,8 +3217,8 @@
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="75"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
@@ -2759,7 +3229,7 @@
       <c r="T18" s="19"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="82"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="24" t="s">
         <v>38</v>
       </c>
@@ -2771,8 +3241,8 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="75"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -2783,8 +3253,8 @@
       <c r="T19" s="19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="82"/>
-      <c r="B20" s="75" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="95" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="19"/>
@@ -2795,8 +3265,8 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="75"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="95"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -2807,8 +3277,8 @@
       <c r="T20" s="19"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="82"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2817,8 +3287,8 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="75"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -2829,8 +3299,8 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="82"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2839,7 +3309,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="25" t="s">
         <v>40</v>
       </c>
@@ -2855,8 +3325,8 @@
       <c r="T22" s="20"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="82"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -2865,7 +3335,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="76"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="26" t="s">
         <v>46</v>
       </c>
@@ -2881,8 +3351,8 @@
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="82"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -2903,8 +3373,8 @@
       <c r="T24" s="32"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="82"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -2925,7 +3395,7 @@
       <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="83"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="25" t="s">
         <v>40</v>
       </c>
@@ -2951,7 +3421,7 @@
       <c r="T26" s="34"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="90" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -2977,7 +3447,7 @@
       <c r="T27" s="34"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="76"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="29" t="s">
         <v>44</v>
       </c>
@@ -3001,8 +3471,8 @@
       <c r="T28" s="34"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="76"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="90"/>
+      <c r="B29" s="95" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="19"/>
@@ -3025,8 +3495,8 @@
       <c r="T29" s="34"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="76"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -3047,8 +3517,8 @@
       <c r="T30" s="34"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="76"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3069,8 +3539,8 @@
       <c r="T31" s="34"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="76"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3091,8 +3561,8 @@
       <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="76"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -3113,8 +3583,8 @@
       <c r="T33" s="34"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="76"/>
-      <c r="B34" s="75"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3135,7 +3605,7 @@
       <c r="T34" s="34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="76"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="25" t="s">
         <v>40</v>
       </c>
@@ -3161,7 +3631,7 @@
       <c r="T35" s="34"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="76"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="27" t="s">
         <v>46</v>
       </c>
@@ -3188,6 +3658,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A17:A26"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="K2:K13"/>
     <mergeCell ref="L3:L4"/>
@@ -3196,12 +3672,6 @@
     <mergeCell ref="L16:L21"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A17:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3211,170 +3681,244 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="88" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="38" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="92" customWidth="1"/>
-    <col min="4" max="5" width="17" style="92" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="42" customWidth="1"/>
+    <col min="4" max="5" width="17" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-    </row>
-    <row r="2" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="B2" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="100" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="89">
-        <v>1</v>
-      </c>
-      <c r="B3" s="93" t="s">
+      <c r="D3" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="39">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="39">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="91"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="89">
-        <v>2</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="C5" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="91"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="89">
-        <v>3</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="91" t="s">
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A6" s="39">
+        <v>4</v>
+      </c>
+      <c r="B6" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="C6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="91"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="89">
-        <v>4</v>
-      </c>
-      <c r="B6" s="102" t="s">
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="39">
+        <v>5</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="39">
+        <v>6</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="D8" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A9" s="39">
+        <v>7</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="91"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="89">
-        <v>5</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="91"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="89">
-        <v>6</v>
-      </c>
-      <c r="B8" s="102" t="s">
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A10" s="39">
+        <v>8</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="91"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A9" s="89">
-        <v>7</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="91"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="89">
-        <v>7</v>
-      </c>
-      <c r="B10" s="93" t="s">
+      <c r="D10" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="91"/>
+      <c r="E10" s="50" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A11" s="89">
-        <v>8</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="A11" s="39">
+        <v>9</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A12" s="39">
+        <v>10</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A13" s="39">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A14" s="39">
+        <v>12</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A15" s="39">
+        <v>13</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A16" s="39">
+        <v>14</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A17" s="39">
+        <v>15</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3385,4 +3929,97 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="5" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A1" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+    </row>
+    <row r="2" spans="1:5" s="104" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="83.25" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="98.25" customHeight="1">
+      <c r="A4" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="107"/>
+    </row>
+    <row r="5" spans="1:5" ht="98.25" customHeight="1">
+      <c r="A5" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>